--- a/biology/Botanique/Irvingia_gabonensis/Irvingia_gabonensis.xlsx
+++ b/biology/Botanique/Irvingia_gabonensis/Irvingia_gabonensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Irvingia gabonensis[4] et Irvingia wombolu[5] sont des espèces de plantes à fleurs du genre Irvingia et de la familles des Irvingiaceae. Ce sont des arbres africains portant des fruits comestibles semblables à la mangue qui sont particulièrement appréciés pour leurs noix oléagineuses et riches en protéines.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Irvingia gabonensis et Irvingia wombolu sont des espèces de plantes à fleurs du genre Irvingia et de la familles des Irvingiaceae. Ce sont des arbres africains portant des fruits comestibles semblables à la mangue qui sont particulièrement appréciés pour leurs noix oléagineuses et riches en protéines.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>La première espèce à être décrite pour la première fois le fut par le Dr O'Rorke en 1857[6].
-L'arbre peut atteindre les 50 m de hauteur et 2½ m de diamètre et a une écorce de couleur grise[5].
-Écologie[7] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>La première espèce à être décrite pour la première fois le fut par le Dr O'Rorke en 1857.
+L'arbre peut atteindre les 50 m de hauteur et 2½ m de diamètre et a une écorce de couleur grise.
+Écologie :
 Sempervirent dense en forêt tropicale sur sol sec.
 En forêt de feuillus mixtes.
 Supporte des climats plus secs qu'Irvingia excelsa.
@@ -547,10 +561,12 @@
           <t>Autres noms</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La mangue sauvage est aussi connue sous les noms suivants :
-mangue sauvage, mangue africaine, mangue brousse ou dika[4]
+mangue sauvage, mangue africaine, mangue brousse ou dika
 african mango en anglais
 bobo en Sierra Leone
 boboru ou wanini en Côte d'Ivoire
@@ -597,13 +613,61 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nourriture
-Fruit
-Les fruits de l’I. gabonensis sont "sucrés", pèsent environ 200 g et sont produits de juin à août alors que ceux de l’I. wombolu sont amers, pèsent environ 85 g et sont produits de janvier à mars.
+          <t>Nourriture</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Fruit</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fruits de l’I. gabonensis sont "sucrés", pèsent environ 200 g et sont produits de juin à août alors que ceux de l’I. wombolu sont amers, pèsent environ 85 g et sont produits de janvier à mars.
 Les humains mangent les fruits frais, conduisant à l'abus de langage, de la "mangue sauvage".
 Les fruits sont transformés en gelée, confiture, jus et parfois même du vin.
 La pâte a également été utilisée pour préparer la teinture noire pour la coloration de tissu.
-Graine
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Irvingia_gabonensis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Irvingia_gabonensis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Nourriture</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Graine</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 La coque de la graine doit être ouverte pour accéder à l'endosperme.
 Les graines, appelées aussi "noix dika", sont consommées crues ou grillés.
 La plupart du temps cependant, elles sont pilées dans une pâte similaire au beurre d'arachide.
